--- a/biology/Zoologie/Fostoria_(dinosaure)/Fostoria_(dinosaure).xlsx
+++ b/biology/Zoologie/Fostoria_(dinosaure)/Fostoria_(dinosaure).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fostoria dhimbangunmal
 Fostoria est un  genre fossile de dinosaures ornithopodes herbivores, un iguanodonte basal ayant vécu au début du Crétacé supérieur.
-Une seule espèce est rattachée au genre : Fostoria dhimbangunmal, décrite en 2019 par Phil R. Bell, Tom Brougham, Matthew C. Herne, Timothy Frauenfelder et Elizabeth T. Smith[1]. Ses fossiles sont épigénisés en opale.
+Une seule espèce est rattachée au genre : Fostoria dhimbangunmal, décrite en 2019 par Phil R. Bell, Tom Brougham, Matthew C. Herne, Timothy Frauenfelder et Elizabeth T. Smith. Ses fossiles sont épigénisés en opale.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Fossiles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les restes fossiles d'un groupe de quatre de ces animaux ont été mis au jour sur un site dans le bassin de Surat dans l’ouest de l'Australie en Nouvelle-Galles du Sud, dans la partie supérieure de la formation géologique de Griman Creek datée du Cénomanien inférieur, soit il y a environ 100 Ma (millions d'années)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les restes fossiles d'un groupe de quatre de ces animaux ont été mis au jour sur un site dans le bassin de Surat dans l’ouest de l'Australie en Nouvelle-Galles du Sud, dans la partie supérieure de la formation géologique de Griman Creek datée du Cénomanien inférieur, soit il y a environ 100 Ma (millions d'années).
 Si plus d'une vingtaine d'espèces de dinosaures ont été découvertes en Australie, il s'agit seulement de la seconde espèce d'iguanodontes basaux avec Muttaburrasaurus langdoni.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fossiles retrouvés appartiennent à des juvéniles et à des adultes, ces derniers auraient plus atteindre une longueur totale de 5 mètres[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fossiles retrouvés appartiennent à des juvéniles et à des adultes, ces derniers auraient plus atteindre une longueur totale de 5 mètres.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les iguanodontes basaux, Fostoria  dhimbangunmal se placerait à côté de Talenkauen santacrucensis et de Muttaburrasaurus langdoni[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les iguanodontes basaux, Fostoria  dhimbangunmal se placerait à côté de Talenkauen santacrucensis et de Muttaburrasaurus langdoni.
 </t>
         </is>
       </c>
